--- a/漢字リスト.xlsx
+++ b/漢字リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.212.90.65\disk1\80回生\2組\1223\05　探究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E879052D-6C7D-42A6-B530-6C98C5683C6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2791A6D-EAC0-45A0-97B9-C6009A65253F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3810" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="202">
   <si>
     <t>漢字</t>
     <rPh sb="0" eb="2">
@@ -1130,6 +1130,20 @@
   </si>
   <si>
     <t>たいぐう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢検３級</t>
+    <rPh sb="0" eb="2">
+      <t>カンケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1455,811 +1469,1111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" t="s">
         <v>77</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" t="s">
         <v>79</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" t="s">
         <v>81</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" t="s">
         <v>85</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" t="s">
         <v>87</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" t="s">
         <v>89</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" t="s">
         <v>91</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" t="s">
         <v>93</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" t="s">
         <v>95</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" t="s">
         <v>97</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" t="s">
         <v>99</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" t="s">
         <v>101</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" t="s">
         <v>103</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" t="s">
         <v>105</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" t="s">
         <v>107</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" t="s">
         <v>109</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" t="s">
         <v>111</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" t="s">
         <v>113</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" t="s">
         <v>115</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" t="s">
         <v>117</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" t="s">
         <v>119</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" t="s">
         <v>121</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" t="s">
         <v>123</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" t="s">
         <v>125</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" t="s">
         <v>127</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" t="s">
         <v>129</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" t="s">
         <v>131</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
         <v>133</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s">
         <v>135</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" t="s">
         <v>137</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" t="s">
         <v>139</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" t="s">
         <v>141</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" t="s">
         <v>143</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" t="s">
         <v>145</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" t="s">
         <v>147</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" t="s">
         <v>149</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" t="s">
         <v>151</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" t="s">
         <v>153</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" t="s">
         <v>155</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>201</v>
+      </c>
+      <c r="B80" t="s">
         <v>157</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" t="s">
         <v>159</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" t="s">
         <v>161</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" t="s">
         <v>163</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" t="s">
         <v>165</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" t="s">
         <v>167</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" t="s">
         <v>169</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" t="s">
         <v>171</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" t="s">
         <v>173</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" t="s">
         <v>175</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" t="s">
         <v>177</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" t="s">
         <v>180</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" t="s">
         <v>182</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" t="s">
         <v>184</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" t="s">
         <v>186</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" t="s">
         <v>188</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" t="s">
         <v>190</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s">
         <v>192</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
         <v>194</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" t="s">
         <v>196</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
         <v>198</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>199</v>
       </c>
     </row>

--- a/漢字リスト.xlsx
+++ b/漢字リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.212.90.65\disk1\80回生\2組\1223\05　探究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326A4F80-B668-4E83-AED9-B0EC16AD4FBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB198E60-BFB1-4E20-BBB9-48CAC52E1ABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="332">
   <si>
     <t>欧米</t>
     <rPh sb="0" eb="2">
@@ -1054,6 +1054,738 @@
     <t>漢検三級</t>
     <rPh sb="0" eb="4">
       <t>カンケンサンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>餓死</t>
+    <rPh sb="0" eb="2">
+      <t>ガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢検二級</t>
+    <rPh sb="0" eb="2">
+      <t>カンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酪農</t>
+    <rPh sb="0" eb="2">
+      <t>ラクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らくのう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彙報</t>
+    <rPh sb="0" eb="2">
+      <t>イホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いほう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢検二級</t>
+    <rPh sb="0" eb="4">
+      <t>カンケンニキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刹那</t>
+    <rPh sb="0" eb="2">
+      <t>セツナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せつな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢検三級</t>
+    <rPh sb="2" eb="4">
+      <t>サンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢検二級</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢検二級</t>
+    <rPh sb="0" eb="2">
+      <t>カンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甚大</t>
+    <rPh sb="0" eb="2">
+      <t>ジンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じんだい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>憤り</t>
+    <rPh sb="0" eb="1">
+      <t>イキドオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきどおり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>溺愛</t>
+    <rPh sb="0" eb="2">
+      <t>デキアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できあい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頻発</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンパツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひんぱつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尚早</t>
+    <rPh sb="0" eb="2">
+      <t>ショウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょうそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肯定</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうてい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪渓</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せっけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嫡子</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちゃくし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臆面</t>
+    <rPh sb="0" eb="2">
+      <t>オクメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくめん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>霜害</t>
+    <rPh sb="0" eb="2">
+      <t>ソウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一蹴</t>
+    <rPh sb="0" eb="2">
+      <t>イッシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土壌</t>
+    <rPh sb="0" eb="2">
+      <t>ドジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旋回</t>
+    <rPh sb="0" eb="2">
+      <t>センカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>醜悪</t>
+    <rPh sb="0" eb="2">
+      <t>シュウアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅうあく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>露呈</t>
+    <rPh sb="0" eb="2">
+      <t>ロテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろてい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顕著</t>
+    <rPh sb="0" eb="2">
+      <t>ケンチョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けんちょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国璽</t>
+    <rPh sb="0" eb="2">
+      <t>コクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会釈</t>
+    <rPh sb="0" eb="2">
+      <t>エシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えしゃく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土壇場</t>
+    <rPh sb="0" eb="3">
+      <t>ドタンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どたんば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愁嘆場</t>
+    <rPh sb="0" eb="3">
+      <t>シュウタンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅうたんば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回向</t>
+    <rPh sb="0" eb="2">
+      <t>エコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罷免</t>
+    <rPh sb="0" eb="2">
+      <t>ヒメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひめん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頒布</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はんぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脅嚇</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蚊柱</t>
+    <rPh sb="0" eb="2">
+      <t>カバシラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かばしら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砕石</t>
+    <rPh sb="0" eb="2">
+      <t>サイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抄訳</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょうやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曖昧</t>
+    <rPh sb="0" eb="2">
+      <t>アイマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいまい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種苗</t>
+    <rPh sb="0" eb="2">
+      <t>シュビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅびょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萎縮</t>
+    <rPh sb="0" eb="2">
+      <t>イシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いしゅく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思索</t>
+    <rPh sb="0" eb="2">
+      <t>シサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しさく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漆</t>
+    <rPh sb="0" eb="1">
+      <t>ウルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うるし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製靴</t>
+    <rPh sb="0" eb="2">
+      <t>セイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>咽喉</t>
+    <rPh sb="0" eb="2">
+      <t>インコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>童歌</t>
+    <rPh sb="0" eb="2">
+      <t>ワラベウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わらべうた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稼働</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逓減</t>
+    <rPh sb="0" eb="2">
+      <t>テイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ていげん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>椅子</t>
+    <rPh sb="0" eb="2">
+      <t>イス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誓約書</t>
+    <rPh sb="0" eb="3">
+      <t>セイヤクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいやくしょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貼用</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょうよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙幣</t>
+    <rPh sb="0" eb="2">
+      <t>シヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しへい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>危惧</t>
+    <rPh sb="0" eb="2">
+      <t>キグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競り</t>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怨恨</t>
+    <rPh sb="0" eb="2">
+      <t>エンコン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんこん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挨拶</t>
+    <rPh sb="0" eb="2">
+      <t>アイサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいさつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宛先</t>
+    <rPh sb="0" eb="2">
+      <t>アテサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あてさき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>産着</t>
+    <rPh sb="0" eb="2">
+      <t>ウブギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うぶぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>疎遠</t>
+    <rPh sb="0" eb="2">
+      <t>ソエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そえん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>溺死</t>
+    <rPh sb="0" eb="2">
+      <t>デキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畏怖</t>
+    <rPh sb="0" eb="2">
+      <t>イフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狂奔</t>
+    <rPh sb="0" eb="2">
+      <t>キョウホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうほん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛猫</t>
+    <rPh sb="0" eb="2">
+      <t>アイビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいびょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鬱屈</t>
+    <rPh sb="0" eb="2">
+      <t>ウックツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うっくつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦慄</t>
+    <rPh sb="0" eb="2">
+      <t>センリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんりつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妖艶</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようえん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旺盛</t>
+    <rPh sb="0" eb="2">
+      <t>オウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おうせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辣腕</t>
+    <rPh sb="0" eb="2">
+      <t>ラツワン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らつわん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読みの問題</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７へ続く！</t>
+    <rPh sb="2" eb="3">
+      <t>ツヅ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1380,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E85" sqref="B82:E85"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2271,7 +3003,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>201</v>
       </c>
@@ -2282,7 +3014,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>201</v>
       </c>
@@ -2293,7 +3025,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>201</v>
       </c>
@@ -2304,7 +3036,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>202</v>
       </c>
@@ -2315,7 +3047,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>201</v>
       </c>
@@ -2325,12 +3057,8 @@
       <c r="C85" t="s">
         <v>184</v>
       </c>
-      <c r="E85">
-        <f ca="1">A1:E85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>201</v>
       </c>
@@ -2341,7 +3069,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>201</v>
       </c>
@@ -2352,7 +3080,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>201</v>
       </c>
@@ -2363,7 +3091,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>202</v>
       </c>
@@ -2374,7 +3102,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>201</v>
       </c>
@@ -2385,7 +3113,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>201</v>
       </c>
@@ -2396,7 +3124,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>201</v>
       </c>
@@ -2407,7 +3135,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -2418,7 +3146,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>202</v>
       </c>
@@ -2429,7 +3157,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>201</v>
       </c>
@@ -2440,7 +3168,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -2493,6 +3221,891 @@
       </c>
       <c r="C100" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>213</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>214</v>
+      </c>
+      <c r="B111" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>205</v>
+      </c>
+      <c r="B112" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>214</v>
+      </c>
+      <c r="B117" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>205</v>
+      </c>
+      <c r="B118" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>214</v>
+      </c>
+      <c r="B120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>205</v>
+      </c>
+      <c r="B121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>210</v>
+      </c>
+      <c r="B122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>205</v>
+      </c>
+      <c r="B124" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>210</v>
+      </c>
+      <c r="B125" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>215</v>
+      </c>
+      <c r="B126" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>214</v>
+      </c>
+      <c r="B127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>205</v>
+      </c>
+      <c r="B128" t="s">
+        <v>262</v>
+      </c>
+      <c r="C128" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>210</v>
+      </c>
+      <c r="B129" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>214</v>
+      </c>
+      <c r="B130" t="s">
+        <v>266</v>
+      </c>
+      <c r="C130" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>205</v>
+      </c>
+      <c r="B131" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>210</v>
+      </c>
+      <c r="B132" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>214</v>
+      </c>
+      <c r="B133" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136" t="s">
+        <v>278</v>
+      </c>
+      <c r="C136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>205</v>
+      </c>
+      <c r="B137" t="s">
+        <v>280</v>
+      </c>
+      <c r="C137" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>210</v>
+      </c>
+      <c r="B138" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>214</v>
+      </c>
+      <c r="B139" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>205</v>
+      </c>
+      <c r="B140" t="s">
+        <v>286</v>
+      </c>
+      <c r="C140" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" t="s">
+        <v>288</v>
+      </c>
+      <c r="C141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>214</v>
+      </c>
+      <c r="B142" t="s">
+        <v>290</v>
+      </c>
+      <c r="C142" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>205</v>
+      </c>
+      <c r="B143" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>210</v>
+      </c>
+      <c r="B144" t="s">
+        <v>294</v>
+      </c>
+      <c r="C144" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>214</v>
+      </c>
+      <c r="B145" t="s">
+        <v>296</v>
+      </c>
+      <c r="C145" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>205</v>
+      </c>
+      <c r="B146" t="s">
+        <v>298</v>
+      </c>
+      <c r="C146" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>210</v>
+      </c>
+      <c r="B147" t="s">
+        <v>300</v>
+      </c>
+      <c r="C147" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>214</v>
+      </c>
+      <c r="B148" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>205</v>
+      </c>
+      <c r="B149" t="s">
+        <v>304</v>
+      </c>
+      <c r="C149" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>210</v>
+      </c>
+      <c r="B150" t="s">
+        <v>306</v>
+      </c>
+      <c r="C150" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>214</v>
+      </c>
+      <c r="B151" t="s">
+        <v>308</v>
+      </c>
+      <c r="C151" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>205</v>
+      </c>
+      <c r="B152" t="s">
+        <v>310</v>
+      </c>
+      <c r="C152" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>210</v>
+      </c>
+      <c r="B153" t="s">
+        <v>312</v>
+      </c>
+      <c r="C153" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>214</v>
+      </c>
+      <c r="B154" t="s">
+        <v>314</v>
+      </c>
+      <c r="C154" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>205</v>
+      </c>
+      <c r="B155" t="s">
+        <v>316</v>
+      </c>
+      <c r="C155" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>210</v>
+      </c>
+      <c r="B156" t="s">
+        <v>318</v>
+      </c>
+      <c r="C156" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>214</v>
+      </c>
+      <c r="B157" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>205</v>
+      </c>
+      <c r="B158" t="s">
+        <v>322</v>
+      </c>
+      <c r="C158" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>210</v>
+      </c>
+      <c r="B159" t="s">
+        <v>324</v>
+      </c>
+      <c r="C159" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>214</v>
+      </c>
+      <c r="B160" t="s">
+        <v>326</v>
+      </c>
+      <c r="C160" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>205</v>
+      </c>
+      <c r="B161" t="s">
+        <v>328</v>
+      </c>
+      <c r="C161" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>210</v>
+      </c>
+      <c r="B162" t="s">
+        <v>210</v>
+      </c>
+      <c r="C162" t="s">
+        <v>330</v>
+      </c>
+      <c r="D162" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/漢字リスト.xlsx
+++ b/漢字リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.212.90.65\disk1\80回生\2組\1223\05　探究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB198E60-BFB1-4E20-BBB9-48CAC52E1ABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3FD097-084B-4801-BB9A-10920904506F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="331">
   <si>
     <t>欧米</t>
     <rPh sb="0" eb="2">
@@ -1773,18 +1773,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>読みの問題</t>
+    <t>読みの問題7へ続く！</t>
     <rPh sb="0" eb="1">
       <t>ヨ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>７へ続く！</t>
-    <rPh sb="2" eb="3">
+    <rPh sb="7" eb="8">
       <t>ツヅ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2112,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3883,7 +3879,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>205</v>
       </c>
@@ -3894,7 +3890,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>210</v>
       </c>
@@ -3904,76 +3900,73 @@
       <c r="C162" t="s">
         <v>330</v>
       </c>
-      <c r="D162" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>214</v>
       </c>

--- a/漢字リスト.xlsx
+++ b/漢字リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.212.90.65\disk1\80回生\2組\1223\05　探究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3FD097-084B-4801-BB9A-10920904506F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7386436A-7300-4EC9-BCC0-EC304C664DA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="600">
   <si>
     <t>欧米</t>
     <rPh sb="0" eb="2">
@@ -1773,16 +1773,1247 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>読みの問題7へ続く！</t>
+    <t>苛酷</t>
+    <rPh sb="0" eb="2">
+      <t>カコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かこく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脇腹</t>
+    <rPh sb="0" eb="2">
+      <t>ワキバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わきばら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諦観</t>
+    <rPh sb="0" eb="2">
+      <t>テイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ていかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しんちょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裾</t>
     <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツヅ</t>
-    </rPh>
+      <t>スソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すそ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>凄惨</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜜月</t>
+    <rPh sb="0" eb="2">
+      <t>ミツゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みつげつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親戚</t>
+    <rPh sb="0" eb="2">
+      <t>シンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しんせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失踪</t>
+    <rPh sb="0" eb="2">
+      <t>シッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しっそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唾棄</t>
+    <rPh sb="0" eb="2">
+      <t>ダキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妬む</t>
+    <rPh sb="0" eb="1">
+      <t>ネタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねたむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瞳孔</t>
+    <rPh sb="0" eb="2">
+      <t>ドウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汎用性</t>
+    <rPh sb="0" eb="3">
+      <t>ハンヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はんようせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勃発</t>
+    <rPh sb="0" eb="2">
+      <t>ボッパツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼっぱつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陶冶</t>
+    <rPh sb="0" eb="2">
+      <t>トウヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とうや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臆断</t>
+    <rPh sb="0" eb="2">
+      <t>オクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくだん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拉致</t>
+    <rPh sb="0" eb="2">
+      <t>ラチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横柄</t>
+    <rPh sb="0" eb="2">
+      <t>オウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おうへい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瓦解</t>
+    <rPh sb="0" eb="2">
+      <t>ガカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出藍</t>
+    <rPh sb="0" eb="2">
+      <t>シュツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅつらん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>崖</t>
+    <rPh sb="0" eb="1">
+      <t>ガケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明瞭</t>
+    <rPh sb="0" eb="2">
+      <t>メイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めいりょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玩味</t>
+    <rPh sb="0" eb="2">
+      <t>ガンミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がんみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賄賂</t>
+    <rPh sb="0" eb="2">
+      <t>ワイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わいろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚弄</t>
+    <rPh sb="0" eb="2">
+      <t>グロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐろう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僅差</t>
+    <rPh sb="0" eb="2">
+      <t>キンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろうじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山麓</t>
+    <rPh sb="0" eb="2">
+      <t>サンロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんろく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵盤</t>
+    <rPh sb="0" eb="2">
+      <t>ケンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けんばん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怨念</t>
+    <rPh sb="0" eb="2">
+      <t>オンネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんねん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顎</t>
+    <rPh sb="0" eb="1">
+      <t>アゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虎口</t>
+    <rPh sb="0" eb="2">
+      <t>ココウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亀裂</t>
+    <rPh sb="0" eb="2">
+      <t>キレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きれつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱臼</t>
+    <rPh sb="0" eb="2">
+      <t>ダッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だっきゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嗅覚</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゅうかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真摯</t>
+    <rPh sb="0" eb="2">
+      <t>シンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しんし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>餌食</t>
+    <rPh sb="0" eb="2">
+      <t>エジキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えじき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>叱責</t>
+    <rPh sb="0" eb="2">
+      <t>シッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しっせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羨望</t>
+    <rPh sb="0" eb="2">
+      <t>センボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂嵐</t>
+    <rPh sb="0" eb="2">
+      <t>スナアラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すなあらし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畏敬</t>
+    <rPh sb="0" eb="2">
+      <t>イケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢検一級</t>
+    <rPh sb="0" eb="4">
+      <t>カンケンイッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢検一級</t>
+    <rPh sb="0" eb="2">
+      <t>カンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瑰麗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいれい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>烏鵲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解傭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うじゃく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安佚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんいつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胡乱</t>
+    <rPh sb="0" eb="2">
+      <t>ウロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うろん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>邏卒</t>
+    <rPh sb="0" eb="2">
+      <t>ラソツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らそつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闃然</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げきぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間隙</t>
+    <rPh sb="0" eb="2">
+      <t>カンゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんげき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千仞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんじん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蒐集</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅうしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>咫尺</t>
+    <rPh sb="0" eb="2">
+      <t>シセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稼穡</t>
+    <rPh sb="0" eb="2">
+      <t>カショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かしょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刈穫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅葱</t>
+    <rPh sb="0" eb="2">
+      <t>アサギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あさぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仇讐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゅうしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>煢然</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛礫</t>
+    <rPh sb="0" eb="2">
+      <t>ツブテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つぶて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関雎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんしょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧眄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こべん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臚列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろれつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>器皿</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きべい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧状</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おうじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一掬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっきく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仏龕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶつがん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弛張</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しちょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盥漱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佚遊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつゆう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嫩草</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諛言</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆげし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>囃子</t>
+    <rPh sb="0" eb="2">
+      <t>ハヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はやし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>懐孕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明礬</t>
+    <rPh sb="0" eb="2">
+      <t>ミョウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みょうばん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放曠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほうこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神饌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恐懼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簷滴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんてき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>靉靆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>午餉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拘繋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蘊藉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うんしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>煢煢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冪冪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べきべき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>翅鳥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>袂別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べいべつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舟楫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縹色</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はなだいろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検覈</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けんかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斂葬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れんそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軋轢</t>
+    <rPh sb="0" eb="2">
+      <t>アツレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あつれき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軒輊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頤使</t>
+  </si>
+  <si>
+    <t>いし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禰宜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流眄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りゅうべん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遁走</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とんそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瓦礫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がれき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雲鬢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うんびん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喚鐘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>窮愁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呑噬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鷙鳥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>憐惜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れんせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>癰疽</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようそ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圏套</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けんとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>潸然</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>峻別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅんべつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狡黠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうかつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>涵養</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舳艫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じぐろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欷歔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ききょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貶謫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へんたく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肯綮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>覬覦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゆ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詠懐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えいかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">塵埃	</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じんあい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>救恤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゅうじゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>束脩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そくしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鶴唳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かくれい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捍格</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甄別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けんべつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>驍名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぎょうめい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聯想</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蠹毒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とどく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>灌注</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんちゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜑戸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たんこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嶄然</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざんぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鷸蚌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羈絆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きはん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>擣衣</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とうい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乖離</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冪法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べきほう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荏苒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じんぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丱角</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輜重</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>万斛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ばんこく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>俊髦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅんぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宏闊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>驚懼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>婚娶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんしゅ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">諠鬧	</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訥弁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とつべん</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2108,10 +3339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3895,210 +5126,1550 @@
         <v>210</v>
       </c>
       <c r="B162" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="C162" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>214</v>
       </c>
+      <c r="B163" t="s">
+        <v>332</v>
+      </c>
+      <c r="C163" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>205</v>
       </c>
+      <c r="B164" t="s">
+        <v>334</v>
+      </c>
+      <c r="C164" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>210</v>
       </c>
+      <c r="B165" t="s">
+        <v>336</v>
+      </c>
+      <c r="C165" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>214</v>
       </c>
+      <c r="B166" t="s">
+        <v>338</v>
+      </c>
+      <c r="C166" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>205</v>
       </c>
+      <c r="B167" t="s">
+        <v>340</v>
+      </c>
+      <c r="C167" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>210</v>
       </c>
+      <c r="B168" t="s">
+        <v>342</v>
+      </c>
+      <c r="C168" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>214</v>
       </c>
+      <c r="B169" t="s">
+        <v>344</v>
+      </c>
+      <c r="C169" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>205</v>
       </c>
+      <c r="B170" t="s">
+        <v>346</v>
+      </c>
+      <c r="C170" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>210</v>
       </c>
+      <c r="B171" t="s">
+        <v>348</v>
+      </c>
+      <c r="C171" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>214</v>
       </c>
+      <c r="B172" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>205</v>
       </c>
+      <c r="B173" t="s">
+        <v>352</v>
+      </c>
+      <c r="C173" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>210</v>
       </c>
+      <c r="B174" t="s">
+        <v>354</v>
+      </c>
+      <c r="C174" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>215</v>
       </c>
+      <c r="B175" t="s">
+        <v>356</v>
+      </c>
+      <c r="C175" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176" t="s">
+        <v>358</v>
+      </c>
+      <c r="C176" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177" t="s">
+        <v>360</v>
+      </c>
+      <c r="C177" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178" t="s">
+        <v>362</v>
+      </c>
+      <c r="C178" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179" t="s">
+        <v>364</v>
+      </c>
+      <c r="C179" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180" t="s">
+        <v>366</v>
+      </c>
+      <c r="C180" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181" t="s">
+        <v>368</v>
+      </c>
+      <c r="C181" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182" t="s">
+        <v>370</v>
+      </c>
+      <c r="C182" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183" t="s">
+        <v>372</v>
+      </c>
+      <c r="C183" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184" t="s">
+        <v>374</v>
+      </c>
+      <c r="C184" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185" t="s">
+        <v>376</v>
+      </c>
+      <c r="C185" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186" t="s">
+        <v>378</v>
+      </c>
+      <c r="C186" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187" t="s">
+        <v>380</v>
+      </c>
+      <c r="C187" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188" t="s">
+        <v>382</v>
+      </c>
+      <c r="C188" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189" t="s">
+        <v>384</v>
+      </c>
+      <c r="C189" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190" t="s">
+        <v>386</v>
+      </c>
+      <c r="C190" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191" t="s">
+        <v>388</v>
+      </c>
+      <c r="C191" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192" t="s">
+        <v>390</v>
+      </c>
+      <c r="C192" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193" t="s">
+        <v>392</v>
+      </c>
+      <c r="C193" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194" t="s">
+        <v>394</v>
+      </c>
+      <c r="C194" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195" t="s">
+        <v>396</v>
+      </c>
+      <c r="C195" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196" t="s">
+        <v>398</v>
+      </c>
+      <c r="C196" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197" t="s">
+        <v>400</v>
+      </c>
+      <c r="C197" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198" t="s">
+        <v>402</v>
+      </c>
+      <c r="C198" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199" t="s">
+        <v>404</v>
+      </c>
+      <c r="C199" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200" t="s">
+        <v>406</v>
+      </c>
+      <c r="C200" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="B201" t="s">
+        <v>408</v>
+      </c>
+      <c r="C201" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>214</v>
+      </c>
+      <c r="B202" t="s">
+        <v>410</v>
+      </c>
+      <c r="C202" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" t="s">
+        <v>414</v>
+      </c>
+      <c r="C203" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>413</v>
+      </c>
+      <c r="B204" t="s">
+        <v>416</v>
+      </c>
+      <c r="C204" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>412</v>
+      </c>
+      <c r="B205" t="s">
+        <v>417</v>
+      </c>
+      <c r="C205" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>413</v>
+      </c>
+      <c r="B206" t="s">
+        <v>420</v>
+      </c>
+      <c r="C206" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" t="s">
+        <v>422</v>
+      </c>
+      <c r="C207" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>413</v>
+      </c>
+      <c r="B208" t="s">
+        <v>424</v>
+      </c>
+      <c r="C208" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" t="s">
+        <v>426</v>
+      </c>
+      <c r="C209" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>413</v>
+      </c>
+      <c r="B210" t="s">
+        <v>428</v>
+      </c>
+      <c r="C210" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>412</v>
+      </c>
+      <c r="B211" t="s">
+        <v>430</v>
+      </c>
+      <c r="C211" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>413</v>
+      </c>
+      <c r="B212" t="s">
+        <v>432</v>
+      </c>
+      <c r="C212" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>412</v>
+      </c>
+      <c r="B213" t="s">
+        <v>434</v>
+      </c>
+      <c r="C213" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>413</v>
+      </c>
+      <c r="B214" t="s">
+        <v>436</v>
+      </c>
+      <c r="C214" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>412</v>
+      </c>
+      <c r="B215" t="s">
+        <v>438</v>
+      </c>
+      <c r="C215" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>413</v>
+      </c>
+      <c r="B216" t="s">
+        <v>440</v>
+      </c>
+      <c r="C216" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>412</v>
+      </c>
+      <c r="B217" t="s">
+        <v>442</v>
+      </c>
+      <c r="C217" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>413</v>
+      </c>
+      <c r="B218" t="s">
+        <v>444</v>
+      </c>
+      <c r="C218" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>412</v>
+      </c>
+      <c r="B219" t="s">
+        <v>446</v>
+      </c>
+      <c r="C219" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>413</v>
+      </c>
+      <c r="B220" t="s">
+        <v>448</v>
+      </c>
+      <c r="C220" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>412</v>
+      </c>
+      <c r="B221" t="s">
+        <v>450</v>
+      </c>
+      <c r="C221" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>413</v>
+      </c>
+      <c r="B222" t="s">
+        <v>452</v>
+      </c>
+      <c r="C222" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>412</v>
+      </c>
+      <c r="B223" t="s">
+        <v>454</v>
+      </c>
+      <c r="C223" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>413</v>
+      </c>
+      <c r="B224" t="s">
+        <v>456</v>
+      </c>
+      <c r="C224" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>412</v>
+      </c>
+      <c r="B225" t="s">
+        <v>458</v>
+      </c>
+      <c r="C225" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>413</v>
+      </c>
+      <c r="B226" t="s">
+        <v>460</v>
+      </c>
+      <c r="C226" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>412</v>
+      </c>
+      <c r="B227" t="s">
+        <v>462</v>
+      </c>
+      <c r="C227" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>413</v>
+      </c>
+      <c r="B228" t="s">
+        <v>464</v>
+      </c>
+      <c r="C228" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>412</v>
+      </c>
+      <c r="B229" t="s">
+        <v>466</v>
+      </c>
+      <c r="C229" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>413</v>
+      </c>
+      <c r="B230" t="s">
+        <v>468</v>
+      </c>
+      <c r="C230" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>412</v>
+      </c>
+      <c r="B231" t="s">
+        <v>470</v>
+      </c>
+      <c r="C231" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>413</v>
+      </c>
+      <c r="B232" t="s">
+        <v>472</v>
+      </c>
+      <c r="C232" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>412</v>
+      </c>
+      <c r="B233" t="s">
+        <v>474</v>
+      </c>
+      <c r="C233" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>413</v>
+      </c>
+      <c r="B234" t="s">
+        <v>475</v>
+      </c>
+      <c r="C234" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>412</v>
+      </c>
+      <c r="B235" t="s">
+        <v>477</v>
+      </c>
+      <c r="C235" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>412</v>
+      </c>
+      <c r="B236" t="s">
+        <v>479</v>
+      </c>
+      <c r="C236" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>412</v>
+      </c>
+      <c r="B237" t="s">
+        <v>480</v>
+      </c>
+      <c r="C237" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>412</v>
+      </c>
+      <c r="B238" t="s">
+        <v>482</v>
+      </c>
+      <c r="C238" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>412</v>
+      </c>
+      <c r="B239" t="s">
+        <v>484</v>
+      </c>
+      <c r="C239" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>413</v>
+      </c>
+      <c r="B240" t="s">
+        <v>486</v>
+      </c>
+      <c r="C240" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>412</v>
+      </c>
+      <c r="B241" t="s">
+        <v>488</v>
+      </c>
+      <c r="C241" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>413</v>
+      </c>
+      <c r="B242" t="s">
+        <v>490</v>
+      </c>
+      <c r="C242" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>412</v>
+      </c>
+      <c r="B243" t="s">
+        <v>492</v>
+      </c>
+      <c r="C243" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>413</v>
+      </c>
+      <c r="B244" t="s">
+        <v>494</v>
+      </c>
+      <c r="C244" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>412</v>
+      </c>
+      <c r="B245" t="s">
+        <v>496</v>
+      </c>
+      <c r="C245" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>413</v>
+      </c>
+      <c r="B246" t="s">
+        <v>497</v>
+      </c>
+      <c r="C246" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>412</v>
+      </c>
+      <c r="B247" t="s">
+        <v>499</v>
+      </c>
+      <c r="C247" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>413</v>
+      </c>
+      <c r="B248" t="s">
+        <v>500</v>
+      </c>
+      <c r="C248" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>412</v>
+      </c>
+      <c r="B249" t="s">
+        <v>502</v>
+      </c>
+      <c r="C249" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>413</v>
+      </c>
+      <c r="B250" t="s">
+        <v>504</v>
+      </c>
+      <c r="C250" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>412</v>
+      </c>
+      <c r="B251" t="s">
+        <v>506</v>
+      </c>
+      <c r="C251" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>413</v>
+      </c>
+      <c r="B252" t="s">
+        <v>508</v>
+      </c>
+      <c r="C252" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>412</v>
+      </c>
+      <c r="B253" t="s">
+        <v>509</v>
+      </c>
+      <c r="C253" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>413</v>
+      </c>
+      <c r="B254" t="s">
+        <v>511</v>
+      </c>
+      <c r="C254" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>412</v>
+      </c>
+      <c r="B255" t="s">
+        <v>513</v>
+      </c>
+      <c r="C255" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>413</v>
+      </c>
+      <c r="B256" t="s">
+        <v>515</v>
+      </c>
+      <c r="C256" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>412</v>
+      </c>
+      <c r="B257" t="s">
+        <v>517</v>
+      </c>
+      <c r="C257" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>413</v>
+      </c>
+      <c r="B258" t="s">
+        <v>519</v>
+      </c>
+      <c r="C258" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>412</v>
+      </c>
+      <c r="B259" t="s">
+        <v>521</v>
+      </c>
+      <c r="C259" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>413</v>
+      </c>
+      <c r="B260" t="s">
+        <v>523</v>
+      </c>
+      <c r="C260" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>412</v>
+      </c>
+      <c r="B261" t="s">
+        <v>524</v>
+      </c>
+      <c r="C261" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>413</v>
+      </c>
+      <c r="B262" t="s">
+        <v>526</v>
+      </c>
+      <c r="C262" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>412</v>
+      </c>
+      <c r="B263" t="s">
+        <v>527</v>
+      </c>
+      <c r="C263" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>413</v>
+      </c>
+      <c r="B264" t="s">
+        <v>529</v>
+      </c>
+      <c r="C264" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>412</v>
+      </c>
+      <c r="B265" t="s">
+        <v>531</v>
+      </c>
+      <c r="C265" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>413</v>
+      </c>
+      <c r="B266" t="s">
+        <v>533</v>
+      </c>
+      <c r="C266" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>412</v>
+      </c>
+      <c r="B267" t="s">
+        <v>535</v>
+      </c>
+      <c r="C267" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>413</v>
+      </c>
+      <c r="B268" t="s">
+        <v>537</v>
+      </c>
+      <c r="C268" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>412</v>
+      </c>
+      <c r="B269" t="s">
+        <v>539</v>
+      </c>
+      <c r="C269" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>413</v>
+      </c>
+      <c r="B270" t="s">
+        <v>541</v>
+      </c>
+      <c r="C270" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>412</v>
+      </c>
+      <c r="B271" t="s">
+        <v>543</v>
+      </c>
+      <c r="C271" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>413</v>
+      </c>
+      <c r="B272" t="s">
+        <v>545</v>
+      </c>
+      <c r="C272" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>412</v>
+      </c>
+      <c r="B273" t="s">
+        <v>547</v>
+      </c>
+      <c r="C273" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>413</v>
+      </c>
+      <c r="B274" t="s">
+        <v>548</v>
+      </c>
+      <c r="C274" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>412</v>
+      </c>
+      <c r="B275" t="s">
+        <v>550</v>
+      </c>
+      <c r="C275" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>413</v>
+      </c>
+      <c r="B276" t="s">
+        <v>552</v>
+      </c>
+      <c r="C276" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>412</v>
+      </c>
+      <c r="B277" t="s">
+        <v>554</v>
+      </c>
+      <c r="C277" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>413</v>
+      </c>
+      <c r="B278" t="s">
+        <v>556</v>
+      </c>
+      <c r="C278" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>412</v>
+      </c>
+      <c r="B279" t="s">
+        <v>558</v>
+      </c>
+      <c r="C279" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>413</v>
+      </c>
+      <c r="B280" t="s">
+        <v>560</v>
+      </c>
+      <c r="C280" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>412</v>
+      </c>
+      <c r="B281" t="s">
+        <v>562</v>
+      </c>
+      <c r="C281" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>413</v>
+      </c>
+      <c r="B282" t="s">
+        <v>564</v>
+      </c>
+      <c r="C282" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>412</v>
+      </c>
+      <c r="B283" t="s">
+        <v>566</v>
+      </c>
+      <c r="C283" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>413</v>
+      </c>
+      <c r="B284" t="s">
+        <v>567</v>
+      </c>
+      <c r="C284" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>412</v>
+      </c>
+      <c r="B285" t="s">
+        <v>569</v>
+      </c>
+      <c r="C285" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>413</v>
+      </c>
+      <c r="B286" t="s">
+        <v>571</v>
+      </c>
+      <c r="C286" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>412</v>
+      </c>
+      <c r="B287" t="s">
+        <v>573</v>
+      </c>
+      <c r="C287" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>413</v>
+      </c>
+      <c r="B288" t="s">
+        <v>575</v>
+      </c>
+      <c r="C288" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>412</v>
+      </c>
+      <c r="B289" t="s">
+        <v>577</v>
+      </c>
+      <c r="C289" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>413</v>
+      </c>
+      <c r="B290" t="s">
+        <v>579</v>
+      </c>
+      <c r="C290" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>412</v>
+      </c>
+      <c r="B291" t="s">
+        <v>581</v>
+      </c>
+      <c r="C291" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>413</v>
+      </c>
+      <c r="B292" t="s">
+        <v>583</v>
+      </c>
+      <c r="C292" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>412</v>
+      </c>
+      <c r="B293" t="s">
+        <v>585</v>
+      </c>
+      <c r="C293" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>413</v>
+      </c>
+      <c r="B294" t="s">
+        <v>587</v>
+      </c>
+      <c r="C294" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>412</v>
+      </c>
+      <c r="B295" t="s">
+        <v>588</v>
+      </c>
+      <c r="C295" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>413</v>
+      </c>
+      <c r="B296" t="s">
+        <v>589</v>
+      </c>
+      <c r="C296" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>412</v>
+      </c>
+      <c r="B297" t="s">
+        <v>591</v>
+      </c>
+      <c r="C297" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>413</v>
+      </c>
+      <c r="B298" t="s">
+        <v>593</v>
+      </c>
+      <c r="C298" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>412</v>
+      </c>
+      <c r="B299" t="s">
+        <v>594</v>
+      </c>
+      <c r="C299" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>413</v>
+      </c>
+      <c r="B300" t="s">
+        <v>595</v>
+      </c>
+      <c r="C300" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>412</v>
+      </c>
+      <c r="B301" t="s">
+        <v>597</v>
+      </c>
+      <c r="C301" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>413</v>
+      </c>
+      <c r="B302" t="s">
+        <v>598</v>
+      </c>
+      <c r="C302" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/漢字リスト.xlsx
+++ b/漢字リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.212.90.65\disk1\80回生\2組\1223\05　探究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7386436A-7300-4EC9-BCC0-EC304C664DA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18597754-3DB7-4D32-A7CC-7635DCEB9D47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2066,10 +2066,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ろうじょう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>山麓</t>
     <rPh sb="0" eb="2">
       <t>サンロク</t>
@@ -3014,6 +3010,10 @@
   </si>
   <si>
     <t>とつべん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きんさ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3341,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C302" sqref="C302"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5415,7 +5415,7 @@
         <v>382</v>
       </c>
       <c r="C188" t="s">
-        <v>383</v>
+        <v>599</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5423,10 +5423,10 @@
         <v>205</v>
       </c>
       <c r="B189" t="s">
+        <v>383</v>
+      </c>
+      <c r="C189" t="s">
         <v>384</v>
-      </c>
-      <c r="C189" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5434,10 +5434,10 @@
         <v>210</v>
       </c>
       <c r="B190" t="s">
+        <v>385</v>
+      </c>
+      <c r="C190" t="s">
         <v>386</v>
-      </c>
-      <c r="C190" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5445,10 +5445,10 @@
         <v>214</v>
       </c>
       <c r="B191" t="s">
+        <v>387</v>
+      </c>
+      <c r="C191" t="s">
         <v>388</v>
-      </c>
-      <c r="C191" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5456,10 +5456,10 @@
         <v>205</v>
       </c>
       <c r="B192" t="s">
+        <v>389</v>
+      </c>
+      <c r="C192" t="s">
         <v>390</v>
-      </c>
-      <c r="C192" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5467,10 +5467,10 @@
         <v>210</v>
       </c>
       <c r="B193" t="s">
+        <v>391</v>
+      </c>
+      <c r="C193" t="s">
         <v>392</v>
-      </c>
-      <c r="C193" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5478,10 +5478,10 @@
         <v>214</v>
       </c>
       <c r="B194" t="s">
+        <v>393</v>
+      </c>
+      <c r="C194" t="s">
         <v>394</v>
-      </c>
-      <c r="C194" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5489,10 +5489,10 @@
         <v>205</v>
       </c>
       <c r="B195" t="s">
+        <v>395</v>
+      </c>
+      <c r="C195" t="s">
         <v>396</v>
-      </c>
-      <c r="C195" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5500,10 +5500,10 @@
         <v>210</v>
       </c>
       <c r="B196" t="s">
+        <v>397</v>
+      </c>
+      <c r="C196" t="s">
         <v>398</v>
-      </c>
-      <c r="C196" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5511,10 +5511,10 @@
         <v>214</v>
       </c>
       <c r="B197" t="s">
+        <v>399</v>
+      </c>
+      <c r="C197" t="s">
         <v>400</v>
-      </c>
-      <c r="C197" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5522,10 +5522,10 @@
         <v>205</v>
       </c>
       <c r="B198" t="s">
+        <v>401</v>
+      </c>
+      <c r="C198" t="s">
         <v>402</v>
-      </c>
-      <c r="C198" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5533,10 +5533,10 @@
         <v>210</v>
       </c>
       <c r="B199" t="s">
+        <v>403</v>
+      </c>
+      <c r="C199" t="s">
         <v>404</v>
-      </c>
-      <c r="C199" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5544,10 +5544,10 @@
         <v>215</v>
       </c>
       <c r="B200" t="s">
+        <v>405</v>
+      </c>
+      <c r="C200" t="s">
         <v>406</v>
-      </c>
-      <c r="C200" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5555,10 +5555,10 @@
         <v>215</v>
       </c>
       <c r="B201" t="s">
+        <v>407</v>
+      </c>
+      <c r="C201" t="s">
         <v>408</v>
-      </c>
-      <c r="C201" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5566,381 +5566,381 @@
         <v>214</v>
       </c>
       <c r="B202" t="s">
+        <v>409</v>
+      </c>
+      <c r="C202" t="s">
         <v>410</v>
-      </c>
-      <c r="C202" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B203" t="s">
+        <v>413</v>
+      </c>
+      <c r="C203" t="s">
         <v>414</v>
-      </c>
-      <c r="C203" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B204" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C204" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B205" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C205" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B206" t="s">
+        <v>419</v>
+      </c>
+      <c r="C206" t="s">
         <v>420</v>
-      </c>
-      <c r="C206" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B207" t="s">
+        <v>421</v>
+      </c>
+      <c r="C207" t="s">
         <v>422</v>
-      </c>
-      <c r="C207" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B208" t="s">
+        <v>423</v>
+      </c>
+      <c r="C208" t="s">
         <v>424</v>
-      </c>
-      <c r="C208" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B209" t="s">
+        <v>425</v>
+      </c>
+      <c r="C209" t="s">
         <v>426</v>
-      </c>
-      <c r="C209" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B210" t="s">
+        <v>427</v>
+      </c>
+      <c r="C210" t="s">
         <v>428</v>
-      </c>
-      <c r="C210" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B211" t="s">
+        <v>429</v>
+      </c>
+      <c r="C211" t="s">
         <v>430</v>
-      </c>
-      <c r="C211" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B212" t="s">
+        <v>431</v>
+      </c>
+      <c r="C212" t="s">
         <v>432</v>
-      </c>
-      <c r="C212" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B213" t="s">
+        <v>433</v>
+      </c>
+      <c r="C213" t="s">
         <v>434</v>
-      </c>
-      <c r="C213" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B214" t="s">
+        <v>435</v>
+      </c>
+      <c r="C214" t="s">
         <v>436</v>
-      </c>
-      <c r="C214" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B215" t="s">
+        <v>437</v>
+      </c>
+      <c r="C215" t="s">
         <v>438</v>
-      </c>
-      <c r="C215" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B216" t="s">
+        <v>439</v>
+      </c>
+      <c r="C216" t="s">
         <v>440</v>
-      </c>
-      <c r="C216" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B217" t="s">
+        <v>441</v>
+      </c>
+      <c r="C217" t="s">
         <v>442</v>
-      </c>
-      <c r="C217" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B218" t="s">
+        <v>443</v>
+      </c>
+      <c r="C218" t="s">
         <v>444</v>
-      </c>
-      <c r="C218" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B219" t="s">
+        <v>445</v>
+      </c>
+      <c r="C219" t="s">
         <v>446</v>
-      </c>
-      <c r="C219" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B220" t="s">
+        <v>447</v>
+      </c>
+      <c r="C220" t="s">
         <v>448</v>
-      </c>
-      <c r="C220" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B221" t="s">
+        <v>449</v>
+      </c>
+      <c r="C221" t="s">
         <v>450</v>
-      </c>
-      <c r="C221" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B222" t="s">
+        <v>451</v>
+      </c>
+      <c r="C222" t="s">
         <v>452</v>
-      </c>
-      <c r="C222" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B223" t="s">
+        <v>453</v>
+      </c>
+      <c r="C223" t="s">
         <v>454</v>
-      </c>
-      <c r="C223" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B224" t="s">
+        <v>455</v>
+      </c>
+      <c r="C224" t="s">
         <v>456</v>
-      </c>
-      <c r="C224" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B225" t="s">
+        <v>457</v>
+      </c>
+      <c r="C225" t="s">
         <v>458</v>
-      </c>
-      <c r="C225" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B226" t="s">
+        <v>459</v>
+      </c>
+      <c r="C226" t="s">
         <v>460</v>
-      </c>
-      <c r="C226" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B227" t="s">
+        <v>461</v>
+      </c>
+      <c r="C227" t="s">
         <v>462</v>
-      </c>
-      <c r="C227" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B228" t="s">
+        <v>463</v>
+      </c>
+      <c r="C228" t="s">
         <v>464</v>
-      </c>
-      <c r="C228" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B229" t="s">
+        <v>465</v>
+      </c>
+      <c r="C229" t="s">
         <v>466</v>
-      </c>
-      <c r="C229" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B230" t="s">
+        <v>467</v>
+      </c>
+      <c r="C230" t="s">
         <v>468</v>
-      </c>
-      <c r="C230" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B231" t="s">
+        <v>469</v>
+      </c>
+      <c r="C231" t="s">
         <v>470</v>
-      </c>
-      <c r="C231" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B232" t="s">
+        <v>471</v>
+      </c>
+      <c r="C232" t="s">
         <v>472</v>
-      </c>
-      <c r="C232" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B233" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C233" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B234" t="s">
+        <v>474</v>
+      </c>
+      <c r="C234" t="s">
         <v>475</v>
-      </c>
-      <c r="C234" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B235" t="s">
+        <v>476</v>
+      </c>
+      <c r="C235" t="s">
         <v>477</v>
-      </c>
-      <c r="C235" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B236" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C236" t="s">
         <v>345</v>
@@ -5948,175 +5948,175 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B237" t="s">
+        <v>479</v>
+      </c>
+      <c r="C237" t="s">
         <v>480</v>
-      </c>
-      <c r="C237" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B238" t="s">
+        <v>481</v>
+      </c>
+      <c r="C238" t="s">
         <v>482</v>
-      </c>
-      <c r="C238" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B239" t="s">
+        <v>483</v>
+      </c>
+      <c r="C239" t="s">
         <v>484</v>
-      </c>
-      <c r="C239" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B240" t="s">
+        <v>485</v>
+      </c>
+      <c r="C240" t="s">
         <v>486</v>
-      </c>
-      <c r="C240" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B241" t="s">
+        <v>487</v>
+      </c>
+      <c r="C241" t="s">
         <v>488</v>
-      </c>
-      <c r="C241" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B242" t="s">
+        <v>489</v>
+      </c>
+      <c r="C242" t="s">
         <v>490</v>
-      </c>
-      <c r="C242" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B243" t="s">
+        <v>491</v>
+      </c>
+      <c r="C243" t="s">
         <v>492</v>
-      </c>
-      <c r="C243" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B244" t="s">
+        <v>493</v>
+      </c>
+      <c r="C244" t="s">
         <v>494</v>
-      </c>
-      <c r="C244" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B245" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C245" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B246" t="s">
+        <v>496</v>
+      </c>
+      <c r="C246" t="s">
         <v>497</v>
-      </c>
-      <c r="C246" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B247" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C247" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B248" t="s">
+        <v>499</v>
+      </c>
+      <c r="C248" t="s">
         <v>500</v>
-      </c>
-      <c r="C248" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B249" t="s">
+        <v>501</v>
+      </c>
+      <c r="C249" t="s">
         <v>502</v>
-      </c>
-      <c r="C249" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B250" t="s">
+        <v>503</v>
+      </c>
+      <c r="C250" t="s">
         <v>504</v>
-      </c>
-      <c r="C250" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B251" t="s">
+        <v>505</v>
+      </c>
+      <c r="C251" t="s">
         <v>506</v>
-      </c>
-      <c r="C251" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B252" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C252" t="s">
         <v>247</v>
@@ -6124,552 +6124,552 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B253" t="s">
+        <v>508</v>
+      </c>
+      <c r="C253" t="s">
         <v>509</v>
-      </c>
-      <c r="C253" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B254" t="s">
+        <v>510</v>
+      </c>
+      <c r="C254" t="s">
         <v>511</v>
-      </c>
-      <c r="C254" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B255" t="s">
+        <v>512</v>
+      </c>
+      <c r="C255" t="s">
         <v>513</v>
-      </c>
-      <c r="C255" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B256" t="s">
+        <v>514</v>
+      </c>
+      <c r="C256" t="s">
         <v>515</v>
-      </c>
-      <c r="C256" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B257" t="s">
+        <v>516</v>
+      </c>
+      <c r="C257" t="s">
         <v>517</v>
-      </c>
-      <c r="C257" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B258" t="s">
+        <v>518</v>
+      </c>
+      <c r="C258" t="s">
         <v>519</v>
-      </c>
-      <c r="C258" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B259" t="s">
+        <v>520</v>
+      </c>
+      <c r="C259" t="s">
         <v>521</v>
-      </c>
-      <c r="C259" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B260" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C260" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B261" t="s">
+        <v>523</v>
+      </c>
+      <c r="C261" t="s">
         <v>524</v>
-      </c>
-      <c r="C261" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B262" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C262" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B263" t="s">
+        <v>526</v>
+      </c>
+      <c r="C263" t="s">
         <v>527</v>
-      </c>
-      <c r="C263" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B264" t="s">
+        <v>528</v>
+      </c>
+      <c r="C264" t="s">
         <v>529</v>
-      </c>
-      <c r="C264" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B265" t="s">
+        <v>530</v>
+      </c>
+      <c r="C265" t="s">
         <v>531</v>
-      </c>
-      <c r="C265" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B266" t="s">
+        <v>532</v>
+      </c>
+      <c r="C266" t="s">
         <v>533</v>
-      </c>
-      <c r="C266" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B267" t="s">
+        <v>534</v>
+      </c>
+      <c r="C267" t="s">
         <v>535</v>
-      </c>
-      <c r="C267" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B268" t="s">
+        <v>536</v>
+      </c>
+      <c r="C268" t="s">
         <v>537</v>
-      </c>
-      <c r="C268" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B269" t="s">
+        <v>538</v>
+      </c>
+      <c r="C269" t="s">
         <v>539</v>
-      </c>
-      <c r="C269" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B270" t="s">
+        <v>540</v>
+      </c>
+      <c r="C270" t="s">
         <v>541</v>
-      </c>
-      <c r="C270" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B271" t="s">
+        <v>542</v>
+      </c>
+      <c r="C271" t="s">
         <v>543</v>
-      </c>
-      <c r="C271" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B272" t="s">
+        <v>544</v>
+      </c>
+      <c r="C272" t="s">
         <v>545</v>
-      </c>
-      <c r="C272" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B273" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C273" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B274" t="s">
+        <v>547</v>
+      </c>
+      <c r="C274" t="s">
         <v>548</v>
-      </c>
-      <c r="C274" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B275" t="s">
+        <v>549</v>
+      </c>
+      <c r="C275" t="s">
         <v>550</v>
-      </c>
-      <c r="C275" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B276" t="s">
+        <v>551</v>
+      </c>
+      <c r="C276" t="s">
         <v>552</v>
-      </c>
-      <c r="C276" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B277" t="s">
+        <v>553</v>
+      </c>
+      <c r="C277" t="s">
         <v>554</v>
-      </c>
-      <c r="C277" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B278" t="s">
+        <v>555</v>
+      </c>
+      <c r="C278" t="s">
         <v>556</v>
-      </c>
-      <c r="C278" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B279" t="s">
+        <v>557</v>
+      </c>
+      <c r="C279" t="s">
         <v>558</v>
-      </c>
-      <c r="C279" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B280" t="s">
+        <v>559</v>
+      </c>
+      <c r="C280" t="s">
         <v>560</v>
-      </c>
-      <c r="C280" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B281" t="s">
+        <v>561</v>
+      </c>
+      <c r="C281" t="s">
         <v>562</v>
-      </c>
-      <c r="C281" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B282" t="s">
+        <v>563</v>
+      </c>
+      <c r="C282" t="s">
         <v>564</v>
-      </c>
-      <c r="C282" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B283" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C283" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B284" t="s">
+        <v>566</v>
+      </c>
+      <c r="C284" t="s">
         <v>567</v>
-      </c>
-      <c r="C284" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B285" t="s">
+        <v>568</v>
+      </c>
+      <c r="C285" t="s">
         <v>569</v>
-      </c>
-      <c r="C285" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B286" t="s">
+        <v>570</v>
+      </c>
+      <c r="C286" t="s">
         <v>571</v>
-      </c>
-      <c r="C286" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B287" t="s">
+        <v>572</v>
+      </c>
+      <c r="C287" t="s">
         <v>573</v>
-      </c>
-      <c r="C287" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B288" t="s">
+        <v>574</v>
+      </c>
+      <c r="C288" t="s">
         <v>575</v>
-      </c>
-      <c r="C288" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B289" t="s">
+        <v>576</v>
+      </c>
+      <c r="C289" t="s">
         <v>577</v>
-      </c>
-      <c r="C289" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B290" t="s">
+        <v>578</v>
+      </c>
+      <c r="C290" t="s">
         <v>579</v>
-      </c>
-      <c r="C290" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B291" t="s">
+        <v>580</v>
+      </c>
+      <c r="C291" t="s">
         <v>581</v>
-      </c>
-      <c r="C291" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B292" t="s">
+        <v>582</v>
+      </c>
+      <c r="C292" t="s">
         <v>583</v>
-      </c>
-      <c r="C292" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B293" t="s">
+        <v>584</v>
+      </c>
+      <c r="C293" t="s">
         <v>585</v>
-      </c>
-      <c r="C293" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B294" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C294" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B295" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C295" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B296" t="s">
+        <v>588</v>
+      </c>
+      <c r="C296" t="s">
         <v>589</v>
-      </c>
-      <c r="C296" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B297" t="s">
+        <v>590</v>
+      </c>
+      <c r="C297" t="s">
         <v>591</v>
-      </c>
-      <c r="C297" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B298" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C298" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B299" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C299" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B300" t="s">
+        <v>594</v>
+      </c>
+      <c r="C300" t="s">
         <v>595</v>
-      </c>
-      <c r="C300" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B301" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C301" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B302" t="s">
+        <v>597</v>
+      </c>
+      <c r="C302" t="s">
         <v>598</v>
-      </c>
-      <c r="C302" t="s">
-        <v>599</v>
       </c>
     </row>
   </sheetData>
